--- a/Assets/GameConfig/PlayerConfig.xlsx
+++ b/Assets/GameConfig/PlayerConfig.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -33,27 +33,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>addIslandTimeCost</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>restoreIslandTimeCost</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>processFoodTimeCost</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>eatFoodTimeCost</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>positiveCollectTimeCost</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>negativeCollectTimeCost</t>
+    <t>hungerCeiling</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fatigueCeiling</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fatigueInceasePerDay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buildingMaterialCeiling</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>foodMaterialCeiling</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>食物上限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建材上限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日增加的疲劳值下限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fatigueIncreaseWhenTimeOut</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间耗尽后每秒增加的疲劳值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>饥饿值上限初始值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>疲劳值上限初始值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -382,14 +406,14 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23" customWidth="1"/>
+    <col min="1" max="1" width="26.625" customWidth="1"/>
     <col min="2" max="2" width="11.125" customWidth="1"/>
-    <col min="3" max="3" width="15.125" customWidth="1"/>
+    <col min="3" max="3" width="23.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -405,50 +429,68 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>100</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>100</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>60</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B7">
         <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/GameConfig/PlayerConfig.xlsx
+++ b/Assets/GameConfig/PlayerConfig.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -78,6 +78,30 @@
   </si>
   <si>
     <t>疲劳值上限初始值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>playerAttr_defaultHungerAccumulateSpeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家初始饥饿增长速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>playerAttr_hungerValue_start</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家初始饥饿值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>playerAttr_fatigueValue_start</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家初始疲劳值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -403,17 +427,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.625" customWidth="1"/>
-    <col min="2" max="2" width="11.125" customWidth="1"/>
-    <col min="3" max="3" width="23.75" customWidth="1"/>
+    <col min="1" max="1" width="38.75" customWidth="1"/>
+    <col min="2" max="2" width="14.375" customWidth="1"/>
+    <col min="3" max="3" width="31.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -491,6 +515,39 @@
       </c>
       <c r="C7" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8">
+        <v>-1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>60</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/GameConfig/PlayerConfig.xlsx
+++ b/Assets/GameConfig/PlayerConfig.xlsx
@@ -430,7 +430,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -489,7 +489,7 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
@@ -500,7 +500,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>

--- a/Assets/GameConfig/PlayerConfig.xlsx
+++ b/Assets/GameConfig/PlayerConfig.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -102,6 +102,22 @@
   </si>
   <si>
     <t>玩家初始疲劳值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>foodMaterial_default</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>食材初始值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buildingMaterial_default</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建材初始值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -125,12 +141,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -145,8 +173,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -427,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -452,102 +482,124 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1">
+        <v>100</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="2">
+        <v>60</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2">
+      <c r="B7" s="2">
         <v>100</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C7" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3">
-        <v>100</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="1">
         <v>5</v>
       </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="C9" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B10" s="1">
+        <v>20</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="2">
+        <v>20</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B6">
+      <c r="B12" s="2">
         <v>50</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C12" s="2" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8">
-        <v>-1</v>
-      </c>
-      <c r="C8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9">
-        <v>60</v>
-      </c>
-      <c r="C9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/GameConfig/PlayerConfig.xlsx
+++ b/Assets/GameConfig/PlayerConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -460,17 +460,17 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.75" customWidth="1"/>
-    <col min="2" max="2" width="14.375" customWidth="1"/>
-    <col min="3" max="3" width="31.125" customWidth="1"/>
+    <col min="1" max="1" width="38.77734375" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+    <col min="3" max="3" width="31.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -481,7 +481,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
@@ -492,7 +492,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -503,7 +503,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -514,18 +514,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
@@ -536,7 +536,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
@@ -547,7 +547,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
@@ -558,7 +558,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>21</v>
       </c>
@@ -569,7 +569,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -580,7 +580,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>23</v>
       </c>
@@ -591,7 +591,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>6</v>
       </c>
